--- a/assets/Timesheet_ROC_Template.xlsx
+++ b/assets/Timesheet_ROC_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RodrigoPereiraSTREAM\Documents\GitHub\timesheet-streamlit\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigopereira/Documents/GitHub/timesheet-streamlit/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFE28F-85D7-4D08-B525-3F2ACC545949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD8F9B-178C-9743-8B60-32E9F6320F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="0" windowWidth="30525" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipa de projeto" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="148">
   <si>
     <t>ANO 1</t>
   </si>
@@ -483,6 +483,39 @@
   </si>
   <si>
     <t>Equipa de projeto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assinatura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Técnico Responsável</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -490,14 +523,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -681,6 +728,28 @@
       <color theme="1"/>
       <name val="GalanoGrotesque-Medium"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -720,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="80">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1781,465 +1850,481 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="17" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="17" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="30" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="30" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="61" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="66" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="61" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="69" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="71" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="74" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="66" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="69" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="71" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="74" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2642,131 +2727,131 @@
   </sheetPr>
   <dimension ref="B1:P69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showWhiteSpace="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.45">
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-    </row>
-    <row r="2" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156" t="s">
+    <row r="1" spans="2:16">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+    </row>
+    <row r="2" spans="2:16" ht="31.5" customHeight="1">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-    </row>
-    <row r="4" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="151"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="150"/>
-      <c r="C6" s="149" t="s">
+    <row r="3" spans="2:16" ht="21.75" customHeight="1">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+    </row>
+    <row r="4" spans="2:16" ht="18.75" customHeight="1">
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="133"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.25" customHeight="1">
+      <c r="B6" s="144"/>
+      <c r="C6" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="149" t="s">
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="150"/>
-      <c r="C7" s="149"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+    </row>
+    <row r="7" spans="2:16" ht="14" customHeight="1">
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="147"/>
       <c r="E7" s="147"/>
       <c r="F7" s="147"/>
       <c r="G7" s="147"/>
-      <c r="H7" s="148"/>
+      <c r="H7" s="132"/>
       <c r="I7" s="147"/>
       <c r="J7" s="147"/>
       <c r="K7" s="147"/>
@@ -2776,1189 +2861,1189 @@
       <c r="O7" s="147"/>
       <c r="P7" s="147"/>
     </row>
-    <row r="8" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="146"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="143" t="s">
+    <row r="8" spans="2:16" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B8" s="131"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="143" t="s">
+      <c r="E8" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="143" t="s">
+      <c r="F8" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143" t="s">
+      <c r="H8" s="129"/>
+      <c r="I8" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="143" t="s">
+      <c r="J8" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="143" t="s">
+      <c r="K8" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="143" t="s">
+      <c r="L8" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="143" t="s">
+      <c r="M8" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="N8" s="143" t="s">
+      <c r="N8" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="O8" s="143" t="s">
+      <c r="O8" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="P8" s="143" t="s">
+      <c r="P8" s="129" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="142" t="s">
+    <row r="9" spans="2:16" ht="18" customHeight="1">
+      <c r="B9" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="130"/>
-    </row>
-    <row r="10" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="121" t="s">
+      <c r="C9" s="127"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="116"/>
+    </row>
+    <row r="10" spans="2:16" ht="18" customHeight="1">
+      <c r="B10" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="111"/>
-    </row>
-    <row r="11" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="121" t="s">
+      <c r="C10" s="112"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="97"/>
+    </row>
+    <row r="11" spans="2:16" ht="18" customHeight="1">
+      <c r="B11" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="111"/>
-    </row>
-    <row r="12" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="121" t="s">
+      <c r="C11" s="112"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="97"/>
+    </row>
+    <row r="12" spans="2:16" ht="18" customHeight="1">
+      <c r="B12" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="111"/>
-    </row>
-    <row r="13" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="121" t="s">
+      <c r="C12" s="112"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="97"/>
+    </row>
+    <row r="13" spans="2:16" ht="18" customHeight="1">
+      <c r="B13" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="111"/>
-    </row>
-    <row r="14" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="121" t="s">
+      <c r="C13" s="112"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="97"/>
+    </row>
+    <row r="14" spans="2:16" ht="18" customHeight="1">
+      <c r="B14" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="111"/>
-    </row>
-    <row r="15" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="121" t="s">
+      <c r="C14" s="112"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="97"/>
+    </row>
+    <row r="15" spans="2:16" ht="18" customHeight="1">
+      <c r="B15" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="111"/>
-    </row>
-    <row r="16" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="121" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="97"/>
+    </row>
+    <row r="16" spans="2:16" ht="18" customHeight="1">
+      <c r="B16" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="111"/>
-    </row>
-    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="121" t="s">
+      <c r="C16" s="112"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="97"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1">
+      <c r="B17" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="111"/>
-    </row>
-    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="121" t="s">
+      <c r="C17" s="106"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="97"/>
+    </row>
+    <row r="18" spans="2:16" ht="18" customHeight="1">
+      <c r="B18" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="111"/>
-    </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="121" t="s">
+      <c r="C18" s="106"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="97"/>
+    </row>
+    <row r="19" spans="2:16" ht="18" customHeight="1">
+      <c r="B19" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="111"/>
-    </row>
-    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="121" t="s">
+      <c r="C19" s="106"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="97"/>
+    </row>
+    <row r="20" spans="2:16" ht="18" customHeight="1">
+      <c r="B20" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="111"/>
-    </row>
-    <row r="21" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="121" t="s">
+      <c r="C20" s="106"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="97"/>
+    </row>
+    <row r="21" spans="2:16" ht="18" customHeight="1">
+      <c r="B21" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="111"/>
-    </row>
-    <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="121" t="s">
+      <c r="C21" s="106"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="97"/>
+    </row>
+    <row r="22" spans="2:16" ht="18" customHeight="1">
+      <c r="B22" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="111"/>
-    </row>
-    <row r="23" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="121" t="s">
+      <c r="C22" s="106"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="97"/>
+    </row>
+    <row r="23" spans="2:16" ht="18" customHeight="1">
+      <c r="B23" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="111"/>
-    </row>
-    <row r="24" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="121" t="s">
+      <c r="C23" s="106"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="97"/>
+    </row>
+    <row r="24" spans="2:16" ht="18" customHeight="1">
+      <c r="B24" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="111"/>
-    </row>
-    <row r="25" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="121" t="s">
+      <c r="C24" s="106"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="97"/>
+    </row>
+    <row r="25" spans="2:16" ht="18" customHeight="1">
+      <c r="B25" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="111"/>
-    </row>
-    <row r="26" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="121" t="s">
+      <c r="C25" s="106"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="97"/>
+    </row>
+    <row r="26" spans="2:16" ht="18" customHeight="1">
+      <c r="B26" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="111"/>
-    </row>
-    <row r="27" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="121" t="s">
+      <c r="C26" s="106"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="97"/>
+    </row>
+    <row r="27" spans="2:16" ht="18" customHeight="1">
+      <c r="B27" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="111"/>
-    </row>
-    <row r="28" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="121" t="s">
+      <c r="C27" s="106"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="97"/>
+    </row>
+    <row r="28" spans="2:16" ht="18" customHeight="1">
+      <c r="B28" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="111"/>
-    </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="121" t="s">
+      <c r="C28" s="106"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="97"/>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1">
+      <c r="B29" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="111"/>
-    </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="121" t="s">
+      <c r="C29" s="106"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="97"/>
+    </row>
+    <row r="30" spans="2:16" ht="18" customHeight="1">
+      <c r="B30" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="111"/>
-    </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="121" t="s">
+      <c r="C30" s="106"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="97"/>
+    </row>
+    <row r="31" spans="2:16" ht="18" customHeight="1">
+      <c r="B31" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="120"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="111"/>
-    </row>
-    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="121" t="s">
+      <c r="C31" s="106"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="97"/>
+    </row>
+    <row r="32" spans="2:16" ht="18" customHeight="1">
+      <c r="B32" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="111"/>
-    </row>
-    <row r="33" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="121" t="s">
+      <c r="C32" s="106"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="97"/>
+    </row>
+    <row r="33" spans="2:16" ht="18" customHeight="1">
+      <c r="B33" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="111"/>
-    </row>
-    <row r="34" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="121" t="s">
+      <c r="C33" s="106"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="97"/>
+    </row>
+    <row r="34" spans="2:16" ht="18" customHeight="1">
+      <c r="B34" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="111"/>
-    </row>
-    <row r="35" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="121" t="s">
+      <c r="C34" s="106"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="97"/>
+    </row>
+    <row r="35" spans="2:16" ht="18" customHeight="1">
+      <c r="B35" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="111"/>
-    </row>
-    <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="121" t="s">
+      <c r="C35" s="106"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="97"/>
+    </row>
+    <row r="36" spans="2:16" ht="18" customHeight="1">
+      <c r="B36" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="111"/>
-    </row>
-    <row r="37" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="121" t="s">
+      <c r="C36" s="106"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="97"/>
+    </row>
+    <row r="37" spans="2:16" ht="18" customHeight="1">
+      <c r="B37" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="120"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="111"/>
-    </row>
-    <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="121" t="s">
+      <c r="C37" s="106"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="97"/>
+    </row>
+    <row r="38" spans="2:16" ht="18" customHeight="1">
+      <c r="B38" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="111"/>
-    </row>
-    <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="121" t="s">
+      <c r="C38" s="106"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="97"/>
+    </row>
+    <row r="39" spans="2:16" ht="18" customHeight="1">
+      <c r="B39" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="111"/>
-    </row>
-    <row r="40" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="121" t="s">
+      <c r="C39" s="106"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="97"/>
+    </row>
+    <row r="40" spans="2:16" ht="18" customHeight="1">
+      <c r="B40" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="120"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="111"/>
-    </row>
-    <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="121" t="s">
+      <c r="C40" s="106"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="97"/>
+    </row>
+    <row r="41" spans="2:16" ht="18" customHeight="1">
+      <c r="B41" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="111"/>
-    </row>
-    <row r="42" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="121" t="s">
+      <c r="C41" s="106"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="97"/>
+    </row>
+    <row r="42" spans="2:16" ht="18" customHeight="1">
+      <c r="B42" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="111"/>
-    </row>
-    <row r="43" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="121" t="s">
+      <c r="C42" s="106"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="97"/>
+    </row>
+    <row r="43" spans="2:16" ht="18" customHeight="1">
+      <c r="B43" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="112"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="111"/>
-    </row>
-    <row r="44" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="121" t="s">
+      <c r="C43" s="106"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="97"/>
+    </row>
+    <row r="44" spans="2:16" ht="18" customHeight="1">
+      <c r="B44" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="120"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="111"/>
-    </row>
-    <row r="45" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="121" t="s">
+      <c r="C44" s="106"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="97"/>
+    </row>
+    <row r="45" spans="2:16" ht="18" customHeight="1">
+      <c r="B45" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="120"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="112"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="111"/>
-    </row>
-    <row r="46" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="121" t="s">
+      <c r="C45" s="106"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="97"/>
+    </row>
+    <row r="46" spans="2:16" ht="18" customHeight="1">
+      <c r="B46" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="112"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="111"/>
-    </row>
-    <row r="47" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="121" t="s">
+      <c r="C46" s="106"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="97"/>
+    </row>
+    <row r="47" spans="2:16" ht="18" customHeight="1">
+      <c r="B47" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="120"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="111"/>
-    </row>
-    <row r="48" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="121" t="s">
+      <c r="C47" s="106"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="97"/>
+    </row>
+    <row r="48" spans="2:16" ht="18" customHeight="1">
+      <c r="B48" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="112"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="111"/>
-    </row>
-    <row r="49" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="121" t="s">
+      <c r="C48" s="106"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="97"/>
+    </row>
+    <row r="49" spans="2:16" ht="18" customHeight="1">
+      <c r="B49" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="111"/>
-    </row>
-    <row r="50" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="121" t="s">
+      <c r="C49" s="106"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="97"/>
+    </row>
+    <row r="50" spans="2:16" ht="18" customHeight="1">
+      <c r="B50" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="120"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="113"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="111"/>
-    </row>
-    <row r="51" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="121" t="s">
+      <c r="C50" s="106"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="97"/>
+    </row>
+    <row r="51" spans="2:16" ht="18" customHeight="1">
+      <c r="B51" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="120"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="111"/>
-    </row>
-    <row r="52" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="121" t="s">
+      <c r="C51" s="106"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="97"/>
+    </row>
+    <row r="52" spans="2:16" ht="18" customHeight="1">
+      <c r="B52" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="120"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="112"/>
-      <c r="N52" s="113"/>
-      <c r="O52" s="112"/>
-      <c r="P52" s="111"/>
-    </row>
-    <row r="53" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="121" t="s">
+      <c r="C52" s="106"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="97"/>
+    </row>
+    <row r="53" spans="2:16" ht="18" customHeight="1">
+      <c r="B53" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="114"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="112"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="112"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="112"/>
-      <c r="P53" s="111"/>
-    </row>
-    <row r="54" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="121" t="s">
+      <c r="C53" s="106"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="97"/>
+    </row>
+    <row r="54" spans="2:16" ht="18" customHeight="1">
+      <c r="B54" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="120"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="112"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="112"/>
-      <c r="N54" s="113"/>
-      <c r="O54" s="112"/>
-      <c r="P54" s="111"/>
-    </row>
-    <row r="55" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="121" t="s">
+      <c r="C54" s="106"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="97"/>
+    </row>
+    <row r="55" spans="2:16" ht="18" customHeight="1">
+      <c r="B55" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="120"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="113"/>
-      <c r="M55" s="112"/>
-      <c r="N55" s="113"/>
-      <c r="O55" s="112"/>
-      <c r="P55" s="111"/>
-    </row>
-    <row r="56" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="121" t="s">
+      <c r="C55" s="106"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="97"/>
+    </row>
+    <row r="56" spans="2:16" ht="18" customHeight="1">
+      <c r="B56" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="120"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="113"/>
-      <c r="M56" s="112"/>
-      <c r="N56" s="113"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="111"/>
-    </row>
-    <row r="57" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="121" t="s">
+      <c r="C56" s="106"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="98"/>
+      <c r="P56" s="97"/>
+    </row>
+    <row r="57" spans="2:16" ht="18" customHeight="1">
+      <c r="B57" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="120"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="113"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="111"/>
-    </row>
-    <row r="58" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="121" t="s">
+      <c r="C57" s="106"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="98"/>
+      <c r="P57" s="97"/>
+    </row>
+    <row r="58" spans="2:16" ht="18" customHeight="1">
+      <c r="B58" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="120"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="112"/>
-      <c r="L58" s="113"/>
-      <c r="M58" s="112"/>
-      <c r="N58" s="113"/>
-      <c r="O58" s="112"/>
-      <c r="P58" s="111"/>
-    </row>
-    <row r="59" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="121" t="s">
+      <c r="C58" s="106"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="98"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="97"/>
+    </row>
+    <row r="59" spans="2:16" ht="18" customHeight="1">
+      <c r="B59" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="112"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="112"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="111"/>
-    </row>
-    <row r="60" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="121" t="s">
+      <c r="C59" s="106"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="99"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="97"/>
+    </row>
+    <row r="60" spans="2:16" ht="18" customHeight="1">
+      <c r="B60" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="120"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="113"/>
-      <c r="M60" s="112"/>
-      <c r="N60" s="113"/>
-      <c r="O60" s="112"/>
-      <c r="P60" s="111"/>
-    </row>
-    <row r="61" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="121" t="s">
+      <c r="C60" s="106"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="98"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="98"/>
+      <c r="P60" s="97"/>
+    </row>
+    <row r="61" spans="2:16" ht="18" customHeight="1">
+      <c r="B61" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="120"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="112"/>
-      <c r="L61" s="113"/>
-      <c r="M61" s="112"/>
-      <c r="N61" s="113"/>
-      <c r="O61" s="112"/>
-      <c r="P61" s="111"/>
-    </row>
-    <row r="62" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="121" t="s">
+      <c r="C61" s="106"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="98"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="98"/>
+      <c r="P61" s="97"/>
+    </row>
+    <row r="62" spans="2:16" ht="18" customHeight="1">
+      <c r="B62" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="120"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="112"/>
-      <c r="L62" s="113"/>
-      <c r="M62" s="112"/>
-      <c r="N62" s="113"/>
-      <c r="O62" s="112"/>
-      <c r="P62" s="111"/>
-    </row>
-    <row r="63" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="121" t="s">
+      <c r="C62" s="106"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="98"/>
+      <c r="P62" s="97"/>
+    </row>
+    <row r="63" spans="2:16" ht="18" customHeight="1">
+      <c r="B63" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="120"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="112"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="112"/>
-      <c r="N63" s="113"/>
-      <c r="O63" s="112"/>
-      <c r="P63" s="111"/>
-    </row>
-    <row r="64" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="121" t="s">
+      <c r="C63" s="106"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="98"/>
+      <c r="P63" s="97"/>
+    </row>
+    <row r="64" spans="2:16" ht="18" customHeight="1">
+      <c r="B64" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="120"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="112"/>
-      <c r="L64" s="113"/>
-      <c r="M64" s="112"/>
-      <c r="N64" s="113"/>
-      <c r="O64" s="112"/>
-      <c r="P64" s="111"/>
-    </row>
-    <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="121" t="s">
+      <c r="C64" s="106"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="98"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="98"/>
+      <c r="P64" s="97"/>
+    </row>
+    <row r="65" spans="2:16" ht="18" customHeight="1">
+      <c r="B65" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="120"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="115"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="112"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="122"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="112"/>
-      <c r="P65" s="111"/>
-    </row>
-    <row r="66" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="121" t="s">
+      <c r="C65" s="106"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="99"/>
+      <c r="K65" s="98"/>
+      <c r="L65" s="99"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="99"/>
+      <c r="O65" s="98"/>
+      <c r="P65" s="97"/>
+    </row>
+    <row r="66" spans="2:16" ht="18" customHeight="1">
+      <c r="B66" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="120"/>
-      <c r="D66" s="119"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="115"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="112"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="122"/>
-      <c r="N66" s="113"/>
-      <c r="O66" s="112"/>
-      <c r="P66" s="111"/>
-    </row>
-    <row r="67" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="121" t="s">
+      <c r="C66" s="106"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="99"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="108"/>
+      <c r="N66" s="99"/>
+      <c r="O66" s="98"/>
+      <c r="P66" s="97"/>
+    </row>
+    <row r="67" spans="2:16" ht="18" customHeight="1">
+      <c r="B67" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="120"/>
-      <c r="D67" s="119"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="116"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="112"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="112"/>
-      <c r="N67" s="113"/>
-      <c r="O67" s="112"/>
-      <c r="P67" s="111"/>
-    </row>
-    <row r="68" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="110" t="s">
+      <c r="C67" s="106"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="99"/>
+      <c r="K67" s="98"/>
+      <c r="L67" s="99"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="99"/>
+      <c r="O67" s="98"/>
+      <c r="P67" s="97"/>
+    </row>
+    <row r="68" spans="2:16" ht="18" customHeight="1" thickBot="1">
+      <c r="B68" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="109"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="103"/>
-      <c r="K68" s="102"/>
-      <c r="L68" s="103"/>
-      <c r="M68" s="102"/>
-      <c r="N68" s="103"/>
-      <c r="O68" s="102"/>
-      <c r="P68" s="101"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P69" s="100" t="s">
+      <c r="C68" s="95"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="87"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="P69" s="86" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3978,132 +4063,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL57"/>
+  <dimension ref="A1:BO57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" customWidth="1"/>
     <col min="6" max="16" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" style="4" customWidth="1"/>
-    <col min="28" max="29" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="4"/>
+    <col min="43" max="43" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="64" width="9.1640625" style="4"/>
+    <col min="65" max="65" width="30.83203125" style="4" customWidth="1"/>
+    <col min="66" max="66" width="9.1640625" style="4"/>
+    <col min="67" max="67" width="15.83203125" style="4" customWidth="1"/>
+    <col min="68" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-    </row>
-    <row r="2" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" s="1" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+    </row>
+    <row r="2" spans="1:64" ht="15" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="97" t="s">
+      <c r="E2" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="87" t="s">
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="87" t="s">
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="150"/>
+      <c r="AN2" s="151"/>
+      <c r="AO2" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="87" t="s">
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="150"/>
+      <c r="AR2" s="150"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="150"/>
+      <c r="AU2" s="150"/>
+      <c r="AV2" s="150"/>
+      <c r="AW2" s="150"/>
+      <c r="AX2" s="150"/>
+      <c r="AY2" s="150"/>
+      <c r="AZ2" s="151"/>
+      <c r="BA2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="88"/>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="89"/>
-    </row>
-    <row r="3" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="BB2" s="150"/>
+      <c r="BC2" s="150"/>
+      <c r="BD2" s="150"/>
+      <c r="BE2" s="150"/>
+      <c r="BF2" s="150"/>
+      <c r="BG2" s="150"/>
+      <c r="BH2" s="150"/>
+      <c r="BI2" s="150"/>
+      <c r="BJ2" s="150"/>
+      <c r="BK2" s="150"/>
+      <c r="BL2" s="151"/>
+    </row>
+    <row r="3" spans="1:64">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4289,7 +4378,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" ht="15" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4355,7 +4444,7 @@
       <c r="BK4" s="11"/>
       <c r="BL4" s="12"/>
     </row>
-    <row r="5" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" ht="15" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4423,7 +4512,7 @@
       <c r="BK5" s="20"/>
       <c r="BL5" s="21"/>
     </row>
-    <row r="6" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" ht="15" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4491,7 +4580,7 @@
       <c r="BK6" s="24"/>
       <c r="BL6" s="27"/>
     </row>
-    <row r="7" spans="1:64" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" ht="33.75" customHeight="1" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4739,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" ht="20.25" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4807,7 +4896,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="37"/>
     </row>
-    <row r="9" spans="1:64" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4875,7 +4964,7 @@
       <c r="BK9" s="36"/>
       <c r="BL9" s="37"/>
     </row>
-    <row r="10" spans="1:64" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5123,7 +5212,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="D11" s="44" t="s">
         <v>71</v>
       </c>
@@ -5368,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5434,7 +5523,7 @@
       <c r="BK12" s="52"/>
       <c r="BL12" s="52"/>
     </row>
-    <row r="13" spans="1:64" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5500,7 +5589,7 @@
       <c r="BK13" s="54"/>
       <c r="BL13" s="54"/>
     </row>
-    <row r="14" spans="1:64" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5568,7 +5657,7 @@
       <c r="BK14" s="59"/>
       <c r="BL14" s="60"/>
     </row>
-    <row r="15" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" ht="32.25" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5634,7 +5723,7 @@
       <c r="BK15" s="63"/>
       <c r="BL15" s="64"/>
     </row>
-    <row r="16" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" ht="32.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5700,7 +5789,7 @@
       <c r="BK16" s="67"/>
       <c r="BL16" s="68"/>
     </row>
-    <row r="17" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" ht="32.25" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5766,7 +5855,7 @@
       <c r="BK17" s="67"/>
       <c r="BL17" s="68"/>
     </row>
-    <row r="18" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" ht="32.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5832,7 +5921,7 @@
       <c r="BK18" s="67"/>
       <c r="BL18" s="68"/>
     </row>
-    <row r="19" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" ht="32.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5898,7 +5987,7 @@
       <c r="BK19" s="67"/>
       <c r="BL19" s="68"/>
     </row>
-    <row r="20" spans="1:64" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:64" ht="32.25" customHeight="1" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5964,7 +6053,7 @@
       <c r="BK20" s="67"/>
       <c r="BL20" s="68"/>
     </row>
-    <row r="21" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:64" ht="15" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6212,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:64" ht="15" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="72"/>
       <c r="C22" s="73"/>
@@ -6278,10 +6367,10 @@
       <c r="BK22" s="75"/>
       <c r="BL22" s="75"/>
     </row>
-    <row r="23" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64">
       <c r="A23" s="2"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="90"/>
+      <c r="C23" s="152"/>
       <c r="D23" s="76" t="s">
         <v>74</v>
       </c>
@@ -6466,10 +6555,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:64" ht="15" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="91"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="79" t="s">
         <v>75</v>
       </c>
@@ -6654,10 +6743,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64">
       <c r="A25" s="2"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="90"/>
+      <c r="C25" s="152"/>
       <c r="D25" s="76" t="s">
         <v>74</v>
       </c>
@@ -6842,9 +6931,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:64" ht="15" thickBot="1">
       <c r="A26" s="2"/>
-      <c r="C26" s="91"/>
+      <c r="C26" s="153"/>
       <c r="D26" s="79" t="s">
         <v>75</v>
       </c>
@@ -7029,10 +7118,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64">
       <c r="A27" s="2"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="90"/>
+      <c r="C27" s="152"/>
       <c r="D27" s="76" t="s">
         <v>74</v>
       </c>
@@ -7217,10 +7306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:64" ht="15" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="91"/>
+      <c r="C28" s="153"/>
       <c r="D28" s="79" t="s">
         <v>75</v>
       </c>
@@ -7405,10 +7494,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64">
       <c r="A29" s="2"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="90"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="76" t="s">
         <v>74</v>
       </c>
@@ -7593,10 +7682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:64" ht="15" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="91"/>
+      <c r="C30" s="153"/>
       <c r="D30" s="79" t="s">
         <v>75</v>
       </c>
@@ -7781,10 +7870,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64">
       <c r="A31" s="2"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="90"/>
+      <c r="C31" s="152"/>
       <c r="D31" s="76" t="s">
         <v>74</v>
       </c>
@@ -7969,10 +8058,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:64" ht="15" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="91"/>
+      <c r="C32" s="153"/>
       <c r="D32" s="79" t="s">
         <v>75</v>
       </c>
@@ -8157,10 +8246,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:67">
       <c r="A33" s="2"/>
       <c r="B33" s="72"/>
-      <c r="C33" s="90"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="76" t="s">
         <v>74</v>
       </c>
@@ -8345,10 +8434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:67" ht="15" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="72"/>
-      <c r="C34" s="91"/>
+      <c r="C34" s="153"/>
       <c r="D34" s="79" t="s">
         <v>75</v>
       </c>
@@ -8533,10 +8622,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:67">
       <c r="A35" s="2"/>
       <c r="B35" s="72"/>
-      <c r="C35" s="90"/>
+      <c r="C35" s="152"/>
       <c r="D35" s="76" t="s">
         <v>74</v>
       </c>
@@ -8721,10 +8810,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:67" ht="15" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="72"/>
-      <c r="C36" s="91"/>
+      <c r="C36" s="153"/>
       <c r="D36" s="79" t="s">
         <v>75</v>
       </c>
@@ -8909,10 +8998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:67">
       <c r="A37" s="2"/>
       <c r="B37" s="72"/>
-      <c r="C37" s="90"/>
+      <c r="C37" s="152"/>
       <c r="D37" s="76" t="s">
         <v>74</v>
       </c>
@@ -9097,10 +9186,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:67" ht="15" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="72"/>
-      <c r="C38" s="91"/>
+      <c r="C38" s="153"/>
       <c r="D38" s="79" t="s">
         <v>75</v>
       </c>
@@ -9285,10 +9374,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:67">
       <c r="A39" s="2"/>
       <c r="B39" s="72"/>
-      <c r="C39" s="90"/>
+      <c r="C39" s="152"/>
       <c r="D39" s="76" t="s">
         <v>74</v>
       </c>
@@ -9473,10 +9562,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:67" ht="15" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="72"/>
-      <c r="C40" s="91"/>
+      <c r="C40" s="153"/>
       <c r="D40" s="79" t="s">
         <v>75</v>
       </c>
@@ -9661,10 +9750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:67">
       <c r="A41" s="2"/>
       <c r="B41" s="72"/>
-      <c r="C41" s="92"/>
+      <c r="C41" s="154"/>
       <c r="D41" s="76" t="s">
         <v>74</v>
       </c>
@@ -9849,10 +9938,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:67" ht="15" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="72"/>
-      <c r="C42" s="93"/>
+      <c r="C42" s="155"/>
       <c r="D42" s="79" t="s">
         <v>75</v>
       </c>
@@ -10037,12 +10126,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:67">
       <c r="A43" s="1"/>
       <c r="E43" s="82"/>
       <c r="F43" s="82"/>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:67" ht="15" thickBot="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -10095,8 +10184,9 @@
       <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
-    </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="BO44" s="141"/>
+    </row>
+    <row r="45" spans="1:67" ht="42">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -10149,8 +10239,14 @@
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
-    </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="BM45" s="142" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO45" s="143" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:67">
       <c r="E46" s="82"/>
       <c r="F46" s="82"/>
       <c r="G46" s="82"/>
@@ -10200,7 +10296,7 @@
       <c r="AY46" s="82"/>
       <c r="AZ46" s="82"/>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:67">
       <c r="K48" s="84"/>
       <c r="L48" s="84"/>
       <c r="M48" s="84"/>
@@ -10244,7 +10340,7 @@
       <c r="AY48" s="84"/>
       <c r="AZ48" s="84"/>
     </row>
-    <row r="49" spans="11:52" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:52">
       <c r="K49" s="84"/>
       <c r="L49" s="84"/>
       <c r="M49" s="84"/>
@@ -10288,7 +10384,7 @@
       <c r="AY49" s="84"/>
       <c r="AZ49" s="84"/>
     </row>
-    <row r="50" spans="11:52" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:52">
       <c r="K50" s="84"/>
       <c r="L50" s="84"/>
       <c r="M50" s="84"/>
@@ -10332,7 +10428,7 @@
       <c r="AY50" s="84"/>
       <c r="AZ50" s="84"/>
     </row>
-    <row r="51" spans="11:52" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:52">
       <c r="K51" s="84"/>
       <c r="L51" s="84"/>
       <c r="M51" s="84"/>
@@ -10376,7 +10472,7 @@
       <c r="AY51" s="84"/>
       <c r="AZ51" s="84"/>
     </row>
-    <row r="52" spans="11:52" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:52">
       <c r="K52" s="84"/>
       <c r="L52" s="84"/>
       <c r="M52" s="84"/>
@@ -10420,7 +10516,7 @@
       <c r="AY52" s="84"/>
       <c r="AZ52" s="84"/>
     </row>
-    <row r="53" spans="11:52" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:52">
       <c r="K53" s="84"/>
       <c r="L53" s="84"/>
       <c r="M53" s="84"/>
@@ -10464,7 +10560,7 @@
       <c r="AY53" s="84"/>
       <c r="AZ53" s="84"/>
     </row>
-    <row r="54" spans="11:52" x14ac:dyDescent="0.2">
+    <row r="54" spans="11:52">
       <c r="K54" s="84"/>
       <c r="L54" s="84"/>
       <c r="M54" s="84"/>
@@ -10508,7 +10604,7 @@
       <c r="AY54" s="84"/>
       <c r="AZ54" s="84"/>
     </row>
-    <row r="55" spans="11:52" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:52">
       <c r="K55" s="84"/>
       <c r="L55" s="84"/>
       <c r="M55" s="84"/>
@@ -10552,7 +10648,7 @@
       <c r="AY55" s="84"/>
       <c r="AZ55" s="84"/>
     </row>
-    <row r="57" spans="11:52" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:52">
       <c r="K57" s="85"/>
       <c r="L57" s="85"/>
       <c r="M57" s="85"/>
